--- a/public/upload/elections/2013/3_1.07.2013-21.07.2013.xlsx
+++ b/public/upload/elections/2013/3_1.07.2013-21.07.2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="330" windowWidth="14940" windowHeight="7335" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="330" windowWidth="14940" windowHeight="7335" tabRatio="990" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ფორმა N1" sheetId="15" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="22">'ფორმა N 9.7'!$A$1:$I$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ფორმა N1'!$A$1:$M$142</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ფორმა N2'!$A$1:$E$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'ფორმა N3'!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'ფორმა N3'!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ფორმა N4'!$A$1:$E$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ფორმა N4.1'!$A$1:$E$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'ფორმა N5'!$A$1:$D$85</definedName>
@@ -77,12 +77,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="23">'ფორმა N9.8'!$A$1:$N$42</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="639">
   <si>
     <t>პრემია</t>
   </si>
@@ -5550,13 +5549,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5594,13 +5593,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2753244</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>554556</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24167,10 +24166,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A21" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:D42"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24462,33 +24461,33 @@
       <c r="E25" s="556"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A26" s="320" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="563" t="s">
-        <v>313</v>
+      <c r="A26" s="284" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="320" t="s">
+        <v>316</v>
       </c>
       <c r="C26" s="517"/>
       <c r="D26" s="517"/>
       <c r="E26" s="556"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A27" s="284" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="320" t="s">
-        <v>316</v>
-      </c>
-      <c r="C27" s="517"/>
-      <c r="D27" s="517"/>
+      <c r="A27" s="336" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="284" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="351"/>
+      <c r="D27" s="351"/>
       <c r="E27" s="556"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1">
       <c r="A28" s="336" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="284" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C28" s="351"/>
       <c r="D28" s="351"/>
@@ -24496,72 +24495,73 @@
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1">
       <c r="A29" s="336" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B29" s="284" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C29" s="351"/>
       <c r="D29" s="351"/>
       <c r="E29" s="556"/>
     </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A30" s="336" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="284" t="s">
-        <v>315</v>
+    <row r="30" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A30" s="320" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="563" t="s">
+        <v>467</v>
       </c>
       <c r="C30" s="351"/>
       <c r="D30" s="351"/>
       <c r="E30" s="556"/>
     </row>
-    <row r="31" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A31" s="320" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="563" t="s">
-        <v>467</v>
-      </c>
-      <c r="C31" s="351"/>
-      <c r="D31" s="351"/>
-      <c r="E31" s="556"/>
-    </row>
-    <row r="32" spans="1:6" s="306" customFormat="1" ht="24.75" customHeight="1">
+    <row r="31" spans="1:6" s="306" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B31" s="564"/>
+    </row>
+    <row r="32" spans="1:6" s="306" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A32" s="522"/>
       <c r="B32" s="564"/>
-    </row>
-    <row r="33" spans="1:9" s="306" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="522"/>
+      <c r="E32" s="354"/>
+    </row>
+    <row r="33" spans="1:9" s="306" customFormat="1">
       <c r="B33" s="564"/>
       <c r="E33" s="354"/>
     </row>
-    <row r="34" spans="1:9" s="306" customFormat="1">
-      <c r="B34" s="564"/>
-      <c r="E34" s="354"/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="522"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="522"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="306"/>
+      <c r="A35" s="306"/>
+    </row>
+    <row r="36" spans="1:9" s="306" customFormat="1">
+      <c r="A36" s="355" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="564"/>
+      <c r="E36" s="354"/>
     </row>
     <row r="37" spans="1:9" s="306" customFormat="1">
-      <c r="A37" s="355" t="s">
-        <v>105</v>
-      </c>
       <c r="B37" s="564"/>
-      <c r="E37" s="354"/>
+      <c r="E37" s="356"/>
+      <c r="F37" s="356"/>
+      <c r="G37" s="356"/>
+      <c r="H37" s="356"/>
+      <c r="I37" s="356"/>
     </row>
     <row r="38" spans="1:9" s="306" customFormat="1">
       <c r="B38" s="564"/>
+      <c r="D38" s="357"/>
       <c r="E38" s="356"/>
       <c r="F38" s="356"/>
       <c r="G38" s="356"/>
       <c r="H38" s="356"/>
       <c r="I38" s="356"/>
     </row>
-    <row r="39" spans="1:9" s="306" customFormat="1">
-      <c r="B39" s="564"/>
+    <row r="39" spans="1:9" s="306" customFormat="1" ht="27">
+      <c r="A39" s="356"/>
+      <c r="B39" s="567" t="s">
+        <v>601</v>
+      </c>
       <c r="D39" s="357"/>
       <c r="E39" s="356"/>
       <c r="F39" s="356"/>
@@ -24571,8 +24571,8 @@
     </row>
     <row r="40" spans="1:9" s="306" customFormat="1" ht="27">
       <c r="A40" s="356"/>
-      <c r="B40" s="567" t="s">
-        <v>601</v>
+      <c r="B40" s="564" t="s">
+        <v>270</v>
       </c>
       <c r="D40" s="357"/>
       <c r="E40" s="356"/>
@@ -24581,25 +24581,13 @@
       <c r="H40" s="356"/>
       <c r="I40" s="356"/>
     </row>
-    <row r="41" spans="1:9" s="306" customFormat="1" ht="27">
-      <c r="A41" s="356"/>
-      <c r="B41" s="564" t="s">
-        <v>270</v>
-      </c>
-      <c r="D41" s="357"/>
-      <c r="E41" s="356"/>
-      <c r="F41" s="356"/>
-      <c r="G41" s="356"/>
-      <c r="H41" s="356"/>
-      <c r="I41" s="356"/>
+    <row r="41" spans="1:9" s="356" customFormat="1">
+      <c r="B41" s="568" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="42" spans="1:9" s="356" customFormat="1">
-      <c r="B42" s="568" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="356" customFormat="1">
-      <c r="B43" s="569"/>
+      <c r="B42" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24623,7 +24611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -27694,7 +27682,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
